--- a/data/sensitivity_inclusions.xlsx
+++ b/data/sensitivity_inclusions.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27018"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keenanf\GitRepos\SensitivityChecks\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://oxforduniversitypress.sharepoint.com/sites/Sensitivecontent/Shared Documents/General/LOTE sensitivity documents/GL labelling documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B27BC5A-973E-4F1B-870A-18F774A18015}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E12AEDDF-3163-43D1-9CCA-64CAAE30DFB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3465" yWindow="3465" windowWidth="21600" windowHeight="11385" xr2:uid="{3EA5D5BE-0F22-40C7-BBA5-258D2F0B6AAE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$28</definedName>
+  </definedNames>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,43 +39,373 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
-  <si>
-    <t>Word</t>
-  </si>
-  <si>
-    <t>Offensive</t>
-  </si>
-  <si>
-    <t>Vulgar</t>
-  </si>
-  <si>
-    <t>Derogatory</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>penetrate</t>
-  </si>
-  <si>
-    <t>medium</t>
-  </si>
-  <si>
-    <t>troops</t>
-  </si>
-  <si>
-    <t>naked</t>
-  </si>
-  <si>
-    <t>overweight</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="120">
+  <si>
+    <t>Word/phrase</t>
+  </si>
+  <si>
+    <t>Where found</t>
+  </si>
+  <si>
+    <t>Any other info</t>
+  </si>
+  <si>
+    <t>in ODE?</t>
+  </si>
+  <si>
+    <t>in OED?</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Better alternative</t>
+  </si>
+  <si>
+    <t>columns for Frank --&gt;</t>
+  </si>
+  <si>
+    <t>hw</t>
+  </si>
+  <si>
+    <t>def</t>
+  </si>
+  <si>
+    <t>derogatory</t>
+  </si>
+  <si>
+    <t>offensive</t>
+  </si>
+  <si>
+    <t>vulgar</t>
+  </si>
+  <si>
+    <t>sensitivity_classes</t>
+  </si>
+  <si>
+    <t>vulgar/offensive/avoid</t>
+  </si>
+  <si>
+    <t>abnormal</t>
+  </si>
+  <si>
+    <t>Greek-English (Stavropoulos)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In ODE but doesn't mention when it's used for a person. Here, it's used for a person. </t>
+  </si>
+  <si>
+    <t>Not this sense specifically</t>
+  </si>
+  <si>
+    <t>Yes 'person or thing'</t>
+  </si>
+  <si>
+    <t>dated or offensive, like 'subnormal'</t>
+  </si>
+  <si>
+    <t>relating to a person, synonym of subnormal'</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>backwardness</t>
+  </si>
+  <si>
+    <t>English-French</t>
+  </si>
+  <si>
+    <t>headword yes but doesn't specifically mention people and so not labelled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, says 'increasingly offensive'. </t>
+  </si>
+  <si>
+    <t>dated or offensive, like backward</t>
+  </si>
+  <si>
+    <t>relating to a person's intellectual capacity. dated or offensive</t>
+  </si>
+  <si>
+    <t>dwarfish</t>
+  </si>
+  <si>
+    <t>Kannada-Kannada-English</t>
+  </si>
+  <si>
+    <t>describing a short person</t>
+  </si>
+  <si>
+    <t>undefined</t>
+  </si>
+  <si>
+    <t>unrevised</t>
+  </si>
+  <si>
+    <t>From Angus: Prob 'often offensive' if in ref to a person</t>
+  </si>
+  <si>
+    <t>describing a short person often offensive</t>
+  </si>
+  <si>
+    <t>emotional cripple</t>
+  </si>
+  <si>
+    <t>English-French, English-Italian</t>
+  </si>
+  <si>
+    <t>covered by cripple noun sense 2</t>
+  </si>
+  <si>
+    <t>Now often avoided because of potentially offensive connotations'</t>
+  </si>
+  <si>
+    <t>marked as offensive in Collins but the ODE sense of crippled with this example is not currently labelled so doesn't yet need a label</t>
+  </si>
+  <si>
+    <t>with limited emotional skills. Avoid but doesn't need label</t>
+  </si>
+  <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>manikin</t>
+  </si>
+  <si>
+    <t>Kannada-Kannada-English, English-Spanish</t>
+  </si>
+  <si>
+    <t>A very small man.</t>
+  </si>
+  <si>
+    <t>A little man (frequently depreciative); a dwarf, a pygmy. Also figurative.</t>
+  </si>
+  <si>
+    <t>depreciative' is a register label that maps to derogatory. (Angus) this would be just derog if referring to a short man within normal height parameters, offensive if (ever) referring to person of restrrcted growth</t>
+  </si>
+  <si>
+    <t>describing a short person. derogatory for short person but offensive for person with dwarfism</t>
+  </si>
+  <si>
+    <t>mannikin</t>
+  </si>
+  <si>
+    <t>mental aberration</t>
+  </si>
+  <si>
+    <t>as a synonym of 'lunacy' and 'insanity'</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>An abnormal state of mind; temporary impairment of reason or intellectual function</t>
+  </si>
+  <si>
+    <t>synonym of lunacy and insanity</t>
+  </si>
+  <si>
+    <t>mental abnormality</t>
+  </si>
+  <si>
+    <t>mental case</t>
+  </si>
+  <si>
+    <t>English-Russian</t>
+  </si>
+  <si>
+    <t>says 'a use now increasingly avoided'</t>
+  </si>
+  <si>
+    <t>Angus says: Mental case is certainly dated/offensive. Just delete it if it's a lemma/idiom, I'd say, and avoid it in translations</t>
+  </si>
+  <si>
+    <t>mentally ill person</t>
+  </si>
+  <si>
+    <t>mentally ill person. Dated or offensive</t>
+  </si>
+  <si>
+    <t>mental derangement</t>
+  </si>
+  <si>
+    <t>mental condition</t>
+  </si>
+  <si>
+    <t>mental disorder</t>
+  </si>
+  <si>
+    <t>English-German</t>
+  </si>
+  <si>
+    <t>example in entry 'disorder'. It's also in Garner's dictionary of legal usage and just says 'see insanity'</t>
+  </si>
+  <si>
+    <t>its OK as an example but avoid as translation. We'd prefer 'condition'</t>
+  </si>
+  <si>
+    <t>mental imbalance</t>
+  </si>
+  <si>
+    <t>mental impairment</t>
+  </si>
+  <si>
+    <t>mental patient</t>
+  </si>
+  <si>
+    <t>Russian-English</t>
+  </si>
+  <si>
+    <t>Now somewhat dated, and sometimes avoided as being potentially offensive</t>
+  </si>
+  <si>
+    <t>psychiatric patient</t>
+  </si>
+  <si>
+    <t>mentally deranged</t>
+  </si>
+  <si>
+    <t>as a &lt;frm</t>
+  </si>
+  <si>
+    <t>I wouldn’t label it if it’s an English form, but would avoid it as a translation. For a bilingual sth like 'crazy, insane' is better, or 'mentally ill'</t>
+  </si>
+  <si>
+    <t>mentally ill</t>
+  </si>
+  <si>
+    <t>mentally disabled</t>
+  </si>
+  <si>
+    <t>English-German, English-French</t>
+  </si>
+  <si>
+    <t>Doesn't need labelling but avoid where poss</t>
+  </si>
+  <si>
+    <t>having an intellectual disability</t>
+  </si>
+  <si>
+    <t>with an intellectual disability</t>
+  </si>
+  <si>
+    <t>mentally disturbed</t>
+  </si>
+  <si>
+    <t>mentally unbalanced</t>
+  </si>
+  <si>
+    <t>used as a sense indicator in entry 'disordered'</t>
+  </si>
+  <si>
+    <t>mentally unhinged</t>
+  </si>
+  <si>
+    <t>maybe for a bilingual sth like 'crazy, insane' is better, or 'mentally ill'</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>English-French, OED</t>
+  </si>
+  <si>
+    <t>when meaning a person</t>
+  </si>
+  <si>
+    <t xml:space="preserve">doesn't need labelling but on its way to dated. </t>
+  </si>
+  <si>
+    <t>when referring to a person as an object</t>
+  </si>
+  <si>
+    <t>piece of goods</t>
+  </si>
+  <si>
+    <t>English-Greek (Stavropoulos)</t>
+  </si>
+  <si>
+    <t>Yes (as 'chiefly derogatory')</t>
+  </si>
+  <si>
+    <t>offensive, like 'piece' on its own</t>
+  </si>
+  <si>
+    <t>person as an object</t>
+  </si>
+  <si>
+    <t>put it about</t>
+  </si>
+  <si>
+    <t>a bit derogatory when means sleeping with lots of people</t>
+  </si>
+  <si>
+    <t>yes but not labelled</t>
+  </si>
+  <si>
+    <t>a bit derogatory when means sleeping with lots of people but not labelled in ODE yet</t>
+  </si>
+  <si>
+    <t>simple-minded</t>
+  </si>
+  <si>
+    <t>Assamese-Assamese-English</t>
+  </si>
+  <si>
+    <t>Angus says it is offensive when it refers to someone with an intellectual disability</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>when it refers to someone with an intellectual disability</t>
+  </si>
+  <si>
+    <t>simpleton</t>
+  </si>
+  <si>
+    <t>Angus says it is offensive when it means someone with an intellectual disability</t>
+  </si>
+  <si>
+    <t>when it means someone with an intellectual disability</t>
+  </si>
+  <si>
+    <t>social cripple</t>
+  </si>
+  <si>
+    <t>with limited social skills. Avoid but doesn't need label</t>
+  </si>
+  <si>
+    <t>spaghetti eater</t>
+  </si>
+  <si>
+    <t>used offensively in lots of languages to mean 'Italian' and translated literally here.</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>when translated literally in English to mean an Italian person</t>
+  </si>
+  <si>
+    <t>subnormal intelligence</t>
+  </si>
+  <si>
+    <t>avoid. not an appropriate term.</t>
+  </si>
+  <si>
+    <t>lower than usual/typical intelligence'</t>
+  </si>
+  <si>
+    <t>lower than usual/typical intelligence</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,13 +421,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF2A2A2A"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF444444"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -109,15 +467,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -425,23 +797,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E29DD586-32BC-4229-834D-B2A12CB1B630}">
-  <dimension ref="A1:E5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" customWidth="1"/>
-    <col min="2" max="2" width="23.5703125" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" customWidth="1"/>
-    <col min="5" max="5" width="30.42578125" customWidth="1"/>
+    <col min="1" max="1" width="23.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19" style="2" customWidth="1"/>
+    <col min="5" max="5" width="28.7109375" style="2" customWidth="1"/>
+    <col min="6" max="14" width="30.42578125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="23.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -457,45 +833,1025 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D5" t="s">
-        <v>6</v>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="60.75">
+      <c r="A2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="60.75">
+      <c r="A3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="30.75">
+      <c r="A4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="76.5">
+      <c r="A5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="106.5">
+      <c r="A6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="106.5">
+      <c r="A7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="45.75">
+      <c r="A8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="30.75">
+      <c r="A9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="60.75">
+      <c r="A10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="76.5">
+      <c r="A12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="30.75">
+      <c r="A13" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="15.75">
+      <c r="A15" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="76.5">
+      <c r="A16" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="30.75">
+      <c r="A17" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="30.75">
+      <c r="A19" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="45.75">
+      <c r="A20" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="30.75">
+      <c r="A21" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="30.75">
+      <c r="A22" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="45.75">
+      <c r="A23" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="60.75">
+      <c r="A24" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="60.75">
+      <c r="A25" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="45.75">
+      <c r="A26" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="60.75">
+      <c r="A27" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="30.75">
+      <c r="A28" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="H28" s="3"/>
+      <c r="I28" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:E994" xr:uid="{9923D13F-8F1B-48E5-8F4E-B393C1A90FD1}">
-      <formula1>"low,medium,high"</formula1>
-    </dataValidation>
-  </dataValidations>
+  <autoFilter ref="A1:O28" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O28">
+      <sortCondition ref="A1:A28"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F619254EEFCDCB45B91434D91600FD2D" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="905de869bd2b7bda7e4f52d2aa2284d1">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c83ad26d-3f6c-42bb-81ae-74239f2cfe75" xmlns:ns3="0c290cc5-93dc-4a05-b04f-af324e233183" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="29b3cb5540a653062b653d068b0f25de" ns2:_="" ns3:_="">
+    <xsd:import namespace="c83ad26d-3f6c-42bb-81ae-74239f2cfe75"/>
+    <xsd:import namespace="0c290cc5-93dc-4a05-b04f-af324e233183"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="c83ad26d-3f6c-42bb-81ae-74239f2cfe75" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="11" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="12" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="13" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="18" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="20" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="ff217fd5-6bb5-4de3-bf71-ef5eb62cb525" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="22" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="0c290cc5-93dc-4a05-b04f-af324e233183" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="16" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="17" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="21" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{4b5f8769-7bca-4ba1-8197-ed121d8c2146}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="0c290cc5-93dc-4a05-b04f-af324e233183">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="0c290cc5-93dc-4a05-b04f-af324e233183" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="c83ad26d-3f6c-42bb-81ae-74239f2cfe75">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E397EAEB-10B0-47C3-89BA-DEC359DA90DC}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47D30C6A-993E-4E40-A1D2-94E8283036FF}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D985C77-F7F5-43F8-8E2D-D7C65110F584}"/>
 </file>